--- a/analysis/mass_analysis_bilbo/BC01.xlsx
+++ b/analysis/mass_analysis_bilbo/BC01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D288"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,10 +463,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003640856528020829</v>
+        <v>0.0003943333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003640856528020829</v>
+        <v>0.0003943333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>5.216666666666667</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002256777416913113</v>
+        <v>0.002423017627119623</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01401750773682866</v>
+        <v>0.01383564903954704</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01627428515374177</v>
+        <v>0.01625866666666667</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>10.21666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01632890346333081</v>
+        <v>0.01964521263419608</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01816246710927662</v>
+        <v>0.01481345403247059</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03449137057260743</v>
+        <v>0.03445866666666667</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>15.21666666666667</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02311911883699816</v>
+        <v>0.02787244822580738</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02959296358920202</v>
+        <v>0.02478621844085928</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05271208242620017</v>
+        <v>0.05265866666666667</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>20.21666666666667</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03236988025908849</v>
+        <v>0.0391904019387193</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03849510257812068</v>
+        <v>0.03166826472794735</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07086498283720917</v>
+        <v>0.07085866666666665</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>25.21666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05211455038187909</v>
+        <v>0.06348615838860353</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03696725519241276</v>
+        <v>0.02557250827806314</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08908180557429185</v>
+        <v>0.08905866666666666</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>30.21666666666667</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06394043208022827</v>
+        <v>0.07848231988538808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04335992972366452</v>
+        <v>0.02877634678127858</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1073003618038928</v>
+        <v>0.1072586666666667</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>35.21666666666667</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07383128688744181</v>
+        <v>0.09109740967057547</v>
       </c>
       <c r="C9" t="n">
-        <v>0.051680091475277</v>
+        <v>0.03436125699609122</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1255113783627188</v>
+        <v>0.1254586666666667</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>40.21666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08524974882784453</v>
+        <v>0.1062145124433256</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05841518523727771</v>
+        <v>0.03744415422334113</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1436649340651222</v>
+        <v>0.1436586666666667</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>45.21666666666667</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09031882378264915</v>
+        <v>0.1125068020439477</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07157063492297704</v>
+        <v>0.049351864622719</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1618894587056262</v>
+        <v>0.1618586666666667</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>50.21666666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09927727887444254</v>
+        <v>0.123939889798679</v>
       </c>
       <c r="C12" t="n">
-        <v>0.080825854303025</v>
+        <v>0.05611877686798768</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1801031331774675</v>
+        <v>0.1800586666666667</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>55.21666666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1097955438093904</v>
+        <v>0.136949628135049</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08852088438860381</v>
+        <v>0.0613090385316177</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1983164281979942</v>
+        <v>0.1982586666666667</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>60.21666666666667</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1161909282884529</v>
+        <v>0.1446359022254361</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1002777516369996</v>
+        <v>0.07182276444123054</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2164686799254525</v>
+        <v>0.2164586666666667</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>65.21666666666667</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1254449580667298</v>
+        <v>0.1556325813503691</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1092333325219667</v>
+        <v>0.07902608531629754</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2346782905886965</v>
+        <v>0.2346586666666667</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>70.21666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1301226987858628</v>
+        <v>0.159288618990705</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1131767226604002</v>
+        <v>0.08213438100929496</v>
       </c>
       <c r="D16" t="n">
-        <v>0.243299421446263</v>
+        <v>0.241423</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>75.21666666666667</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1309296642710888</v>
+        <v>0.16148200264837</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1291624949203061</v>
+        <v>0.09671533068496335</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2600921591913949</v>
+        <v>0.2581973333333333</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>80.21666666666667</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1301175474395783</v>
+        <v>0.1605504684946208</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1481999662130397</v>
+        <v>0.1158468648387126</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2783175136526179</v>
+        <v>0.2763973333333333</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>85.21666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1318685037977154</v>
+        <v>0.1631511110623668</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1646132883185065</v>
+        <v>0.1314462222709666</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2964817921162219</v>
+        <v>0.2945973333333334</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>90.21666666666667</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1457070537664092</v>
+        <v>0.1557088298209877</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1689923525297292</v>
+        <v>0.1570885035123456</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3146994062961385</v>
+        <v>0.3127973333333334</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>95.21666666666667</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1240111930633516</v>
+        <v>0.1533038938187008</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2088996527533339</v>
+        <v>0.1776934395146326</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3329108458166856</v>
+        <v>0.3309973333333334</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>100.2166666666667</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1327874687566155</v>
+        <v>0.1647079707396365</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2183440609994674</v>
+        <v>0.1844893625936968</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3511315297560829</v>
+        <v>0.3491973333333334</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>105.2166666666667</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1308266536758388</v>
+        <v>0.1621254646220266</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2384598635197723</v>
+        <v>0.2052718687113068</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3692865171956112</v>
+        <v>0.3673973333333334</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>110.2166666666667</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1368456638869402</v>
+        <v>0.1698632539044278</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2506610120817904</v>
+        <v>0.2157340794289055</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3875066759687306</v>
+        <v>0.3855973333333333</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>115.2166666666667</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1431821251716591</v>
+        <v>0.1778706655962491</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2625445936802044</v>
+        <v>0.2259266677370842</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4057267188518635</v>
+        <v>0.4037973333333333</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>120.2166666666667</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1421325161628393</v>
+        <v>0.1764746710742185</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2817489689762574</v>
+        <v>0.2455226622591149</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4238814851390967</v>
+        <v>0.4219973333333333</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,13 @@
         <v>125.2166666666667</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1176930805899754</v>
+        <v>0.1447708505115409</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3244084077412395</v>
+        <v>0.2954264828217924</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4421014883312149</v>
+        <v>0.4401973333333333</v>
       </c>
     </row>
     <row r="28">
@@ -824,13 +824,13 @@
         <v>130.2166666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1365384783470481</v>
+        <v>0.1693398662248075</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3237749596642426</v>
+        <v>0.2890574671085258</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4603134380112907</v>
+        <v>0.4583973333333333</v>
       </c>
     </row>
     <row r="29">
@@ -838,13 +838,13 @@
         <v>135.2166666666667</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1414332367960854</v>
+        <v>0.1759132110098467</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3371006099049916</v>
+        <v>0.3006841223234866</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4785338467010769</v>
+        <v>0.4765973333333333</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +852,13 @@
         <v>140.2166666666667</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1459354033331952</v>
+        <v>0.181241834164204</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3507589645156506</v>
+        <v>0.3135554991691293</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4966943678488459</v>
+        <v>0.4947973333333333</v>
       </c>
     </row>
     <row r="31">
@@ -866,13 +866,13 @@
         <v>145.2166666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1559630584026423</v>
+        <v>0.1933213297371318</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3581572120893526</v>
+        <v>0.3189025035962014</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5141202704919949</v>
+        <v>0.5122238333333332</v>
       </c>
     </row>
     <row r="32">
@@ -880,13 +880,13 @@
         <v>150.2166666666667</v>
       </c>
       <c r="B32" t="n">
-        <v>0.174406334077907</v>
+        <v>0.215919923259848</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3428317935163873</v>
+        <v>0.2994434100734853</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="33">
@@ -894,13 +894,13 @@
         <v>155.2166666666667</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1759128744656406</v>
+        <v>0.2177430448480043</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3413252531286537</v>
+        <v>0.297620288485329</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="34">
@@ -908,559 +908,559 @@
         <v>160.2166666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1762479167210206</v>
+        <v>0.2181176949976925</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3409902108732737</v>
+        <v>0.2972456383356408</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>170.2166666666667</v>
+        <v>167.2166666666667</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1751318395710596</v>
+        <v>0.2187827897971032</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3421062880232347</v>
+        <v>0.2965805435362301</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>175.2166666666667</v>
+        <v>170.2166666666667</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1711938380140166</v>
+        <v>0.2167440112087815</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3460442895802778</v>
+        <v>0.2986193221245518</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>185</v>
+        <v>175.2166666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1697920561054112</v>
+        <v>0.2114514423322434</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3474460714888831</v>
+        <v>0.3039118910010898</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1688505780619726</v>
+        <v>0.2101290819142274</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3483875495323217</v>
+        <v>0.3052342514191059</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1658923945703382</v>
+        <v>0.2089497839373742</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3513457330239561</v>
+        <v>0.3064135493959591</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1583722990649253</v>
+        <v>0.2052971562945385</v>
       </c>
       <c r="C40" t="n">
-        <v>0.358865828529369</v>
+        <v>0.3100661770387948</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1606220159817086</v>
+        <v>0.1956092428121098</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3566161116125858</v>
+        <v>0.3197540905212234</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1579491143276933</v>
+        <v>0.1987709650371209</v>
       </c>
       <c r="C42" t="n">
-        <v>0.359289013266601</v>
+        <v>0.3165923682962123</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1562197236099788</v>
+        <v>0.1954931922733407</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3610184039843155</v>
+        <v>0.3198701410599926</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1504529172351906</v>
+        <v>0.1933153040110097</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3667852103591037</v>
+        <v>0.3220480293223236</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1471440695841375</v>
+        <v>0.1856699446886463</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3700940580101568</v>
+        <v>0.329693388644687</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1435939320717972</v>
+        <v>0.1814774641730177</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3736441955224972</v>
+        <v>0.3338858691603156</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1402348912544364</v>
+        <v>0.1776538015959791</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3770032363398579</v>
+        <v>0.3377095317373542</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1358334721988463</v>
+        <v>0.1734986737780475</v>
       </c>
       <c r="C48" t="n">
-        <v>0.381404655395448</v>
+        <v>0.3418646595552858</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1334691394257886</v>
+        <v>0.1681123940030055</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3837689881685058</v>
+        <v>0.3472509393303278</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1305068762674731</v>
+        <v>0.1651424066831651</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3867312513268212</v>
+        <v>0.3502209266501681</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B51" t="n">
-        <v>0.127260670463521</v>
+        <v>0.1624244828014172</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3899774571307734</v>
+        <v>0.352938850531916</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1194265467780951</v>
+        <v>0.157570740296251</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3978115808161992</v>
+        <v>0.3577925930370822</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1172646020416921</v>
+        <v>0.1476694101794543</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3999735255526022</v>
+        <v>0.3676939231538791</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1145380458656204</v>
+        <v>0.1451256574950091</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4027000817286739</v>
+        <v>0.3702376758383242</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1132149356396809</v>
+        <v>0.1418019421592632</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4040231919546134</v>
+        <v>0.3735613911740701</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1096462040212093</v>
+        <v>0.1402915799983351</v>
       </c>
       <c r="C56" t="n">
-        <v>0.407591923573085</v>
+        <v>0.3750717533349982</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1053441966404542</v>
+        <v>0.1358380401174183</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4118939309538401</v>
+        <v>0.379525293215915</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1024118092900011</v>
+        <v>0.1305771050544332</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4148263183042932</v>
+        <v>0.3847862282789001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09940123771733579</v>
+        <v>0.1270083447468935</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4178368898769586</v>
+        <v>0.3883549885864398</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09364912945010841</v>
+        <v>0.122707921059142</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4235889981441859</v>
+        <v>0.3926554122741913</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B61" t="n">
-        <v>0.08972718877543222</v>
+        <v>0.115474350495558</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4275109388188621</v>
+        <v>0.3998889828377752</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B62" t="n">
-        <v>0.08674618432935971</v>
+        <v>0.1108503623540757</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4304919432649346</v>
+        <v>0.4045129709792576</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B63" t="n">
-        <v>0.08492968428744706</v>
+        <v>0.1072435709247428</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4323084433068473</v>
+        <v>0.4081197624085904</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08067081938437999</v>
+        <v>0.1049214351049964</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4365673082099144</v>
+        <v>0.4104418982283369</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07907390213263152</v>
+        <v>0.1003360417604355</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4381642254616628</v>
+        <v>0.4150272915728979</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07238054218780109</v>
+        <v>0.09831804024985139</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4448575854064932</v>
+        <v>0.4170452930834819</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07020572629586419</v>
+        <v>0.09004044426530719</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4470324012984301</v>
+        <v>0.4253228890680261</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06839226257194568</v>
+        <v>0.0873874036671784</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4488458650223486</v>
+        <v>0.4279759296661549</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06546792964125263</v>
+        <v>0.08467082721246548</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4517701979530417</v>
+        <v>0.4306925061208678</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06339997326970863</v>
+        <v>0.08094957377861277</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4538381543245857</v>
+        <v>0.4344137595547205</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B71" t="n">
-        <v>0.06246542542072146</v>
+        <v>0.07896235794783729</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4547727021735729</v>
+        <v>0.436400975385496</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B72" t="n">
-        <v>0.06057589111680593</v>
+        <v>0.07780486181901496</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4566622364774884</v>
+        <v>0.4375584715143183</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B73" t="n">
-        <v>0.05901674213818515</v>
+        <v>0.07549274730980197</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4582213854561092</v>
+        <v>0.4398705860235313</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="74">
@@ -1468,3009 +1468,1777 @@
         <v>370</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0568805896429007</v>
+        <v>0.07093726744395486</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4603575379513936</v>
+        <v>0.4444260658893784</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B75" t="n">
-        <v>0.05500492040059282</v>
+        <v>0.06736398652890285</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4622332071937015</v>
+        <v>0.4479993468044304</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B76" t="n">
-        <v>0.05396810058071851</v>
+        <v>0.06362430376338753</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4632700270135758</v>
+        <v>0.4517390295699458</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="B77" t="n">
-        <v>0.05223064535472031</v>
+        <v>0.05793155732675788</v>
       </c>
       <c r="C77" t="n">
-        <v>0.465007482239574</v>
+        <v>0.4574317760065754</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="B78" t="n">
-        <v>0.05089333805201091</v>
+        <v>0.05208234945367333</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4663447895422834</v>
+        <v>0.4632809838796599</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="B79" t="n">
-        <v>0.04958969285510845</v>
+        <v>0.04843224816453496</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4676484347391859</v>
+        <v>0.4669310851687983</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="B80" t="n">
-        <v>0.04594198838442082</v>
+        <v>0.04442392006795141</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4712961392098735</v>
+        <v>0.4709394132653819</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0435431977347761</v>
+        <v>0.04095560450886967</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4736949298595182</v>
+        <v>0.4744077288244636</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="B82" t="n">
-        <v>0.04129078599168003</v>
+        <v>0.0380413930188023</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4759473416026143</v>
+        <v>0.477321940314531</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="B83" t="n">
-        <v>0.04044770270748466</v>
+        <v>0.03546549322089137</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4767904248868097</v>
+        <v>0.4798978401124419</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="B84" t="n">
-        <v>0.03858155327250948</v>
+        <v>0.03236135033638399</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4786565743217848</v>
+        <v>0.4830019829969493</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="B85" t="n">
-        <v>0.03652266426895136</v>
+        <v>0.02968956202600503</v>
       </c>
       <c r="C85" t="n">
-        <v>0.480715463325343</v>
+        <v>0.4856737713073283</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="B86" t="n">
-        <v>0.03506844925081427</v>
+        <v>0.02580871923260718</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4821696783434801</v>
+        <v>0.4895546141007261</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>435</v>
+        <v>500</v>
       </c>
       <c r="B87" t="n">
-        <v>0.03362447442231582</v>
+        <v>0.02460704996558154</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4836136531719785</v>
+        <v>0.4907562833677517</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="B88" t="n">
-        <v>0.03253602991686457</v>
+        <v>0.02290190637377377</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4847020976774298</v>
+        <v>0.4924614269595595</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>445</v>
+        <v>520</v>
       </c>
       <c r="B89" t="n">
-        <v>0.03146462931127747</v>
+        <v>0.02166758858304351</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4857734982830169</v>
+        <v>0.4936957447502898</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="B90" t="n">
-        <v>0.03023211232959326</v>
+        <v>0.01983783453208704</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4870060152647011</v>
+        <v>0.4955254988012462</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>455</v>
+        <v>540</v>
       </c>
       <c r="B91" t="n">
-        <v>0.02938449429609856</v>
+        <v>0.01834769444252884</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4878536332981958</v>
+        <v>0.4970156388908045</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>460</v>
+        <v>550</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02815891493025926</v>
+        <v>0.0169813163235946</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4890792126640351</v>
+        <v>0.4983820170097387</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>465</v>
+        <v>560</v>
       </c>
       <c r="B93" t="n">
-        <v>0.02717608279491473</v>
+        <v>0.01631405603882239</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4900620447993796</v>
+        <v>0.4990492772945109</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>470</v>
+        <v>570</v>
       </c>
       <c r="B94" t="n">
-        <v>0.02534984289808591</v>
+        <v>0.01584573228602008</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4918882846962084</v>
+        <v>0.4995176010473132</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>475</v>
+        <v>580</v>
       </c>
       <c r="B95" t="n">
-        <v>0.02440555260380621</v>
+        <v>0.01537962629693729</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4928325749904881</v>
+        <v>0.499983707036396</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>480</v>
+        <v>590</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02348175075373586</v>
+        <v>0.01479145771260687</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4937563768405585</v>
+        <v>0.5005718756207265</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>485</v>
+        <v>600</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02249671795674471</v>
+        <v>0.0134728165044695</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4947414096375496</v>
+        <v>0.5018905168288638</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>490</v>
+        <v>610</v>
       </c>
       <c r="B98" t="n">
-        <v>0.02032055531529508</v>
+        <v>0.01305800207025559</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4969175722789992</v>
+        <v>0.5023053312630776</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>495</v>
+        <v>620</v>
       </c>
       <c r="B99" t="n">
-        <v>0.01982158787590335</v>
+        <v>0.012264171387736</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4974165397183909</v>
+        <v>0.5030991619455972</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>500</v>
+        <v>630</v>
       </c>
       <c r="B100" t="n">
-        <v>0.01935119099125205</v>
+        <v>0.01192662938957007</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4978869366030423</v>
+        <v>0.5034367039437632</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>505</v>
+        <v>640</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01869227361011825</v>
+        <v>0.01047664132186165</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4985458539841761</v>
+        <v>0.5048866920114716</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>510</v>
+        <v>650</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01800334949441254</v>
+        <v>0.009364020243994757</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4992347780998818</v>
+        <v>0.5059993130893385</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>515</v>
+        <v>660</v>
       </c>
       <c r="B103" t="n">
-        <v>0.01735306862866346</v>
+        <v>0.009798341381028102</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4998850589656308</v>
+        <v>0.5055649919523052</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>520</v>
+        <v>670</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01700898719432724</v>
+        <v>0.009357369196168336</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5002291403999671</v>
+        <v>0.5060059641371649</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>525</v>
+        <v>680</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01625954970453097</v>
+        <v>0.008481796700322229</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5009785778897634</v>
+        <v>0.5068815366330111</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>530</v>
+        <v>690</v>
       </c>
       <c r="B106" t="n">
-        <v>0.01554662690452426</v>
+        <v>0.007644957131359599</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5016915006897701</v>
+        <v>0.5077183762019737</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>535</v>
+        <v>700</v>
       </c>
       <c r="B107" t="n">
-        <v>0.01509601579507795</v>
+        <v>0.007628309347181264</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5021421117992164</v>
+        <v>0.507735023986152</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>540</v>
+        <v>710</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01434172171960864</v>
+        <v>0.007633728952396947</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5028964058746856</v>
+        <v>0.5077296043809363</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>545</v>
+        <v>720</v>
       </c>
       <c r="B109" t="n">
-        <v>0.01372455113341396</v>
+        <v>0.007427097928328978</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5035135764608804</v>
+        <v>0.5079362354050043</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>550</v>
+        <v>730</v>
       </c>
       <c r="B110" t="n">
-        <v>0.01323320377358828</v>
+        <v>0.007439126516052216</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5040049238207061</v>
+        <v>0.5079242068172811</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>555</v>
+        <v>740</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0130813364579059</v>
+        <v>0.007145311830303312</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5041567911363884</v>
+        <v>0.50821802150303</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>560</v>
+        <v>750</v>
       </c>
       <c r="B112" t="n">
-        <v>0.01270444661050408</v>
+        <v>0.007212753907404499</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5045336809837903</v>
+        <v>0.5081505794259288</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>565</v>
+        <v>760</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01261836385644667</v>
+        <v>0.006742379906691228</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5046197637378477</v>
+        <v>0.508620953426642</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>570</v>
+        <v>770</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01234581036463443</v>
+        <v>0.006080542363328618</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5048923172296599</v>
+        <v>0.5092827909700046</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>575</v>
+        <v>780</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01187037366683213</v>
+        <v>0.006046297997319722</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5053677539274622</v>
+        <v>0.5093170353360136</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>580</v>
+        <v>790</v>
       </c>
       <c r="B116" t="n">
-        <v>0.01198561395041578</v>
+        <v>0.006072510404677984</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5052525136438786</v>
+        <v>0.5092908229286554</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>585</v>
+        <v>800</v>
       </c>
       <c r="B117" t="n">
-        <v>0.01155627830301754</v>
+        <v>0.005927533146309374</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5056818492912768</v>
+        <v>0.5094358001870239</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>590</v>
+        <v>810</v>
       </c>
       <c r="B118" t="n">
-        <v>0.01139717089425299</v>
+        <v>0.005822704386742788</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5058409567000414</v>
+        <v>0.5095406289465905</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>595</v>
+        <v>820</v>
       </c>
       <c r="B119" t="n">
-        <v>0.01117751935372299</v>
+        <v>0.005911072145183011</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5060606082405713</v>
+        <v>0.5094522611881502</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>600</v>
+        <v>830</v>
       </c>
       <c r="B120" t="n">
-        <v>0.01049404841373138</v>
+        <v>0.005731407907804516</v>
       </c>
       <c r="C120" t="n">
-        <v>0.506744079180563</v>
+        <v>0.5096319254255288</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>605</v>
+        <v>840</v>
       </c>
       <c r="B121" t="n">
-        <v>0.01024361032664589</v>
+        <v>0.005714310946210954</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5069945172676484</v>
+        <v>0.5096490223871223</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>610</v>
+        <v>850</v>
       </c>
       <c r="B122" t="n">
-        <v>0.01017032267771423</v>
+        <v>0.005694989000770312</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5070678049165801</v>
+        <v>0.5096683443325629</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>615</v>
+        <v>860</v>
       </c>
       <c r="B123" t="n">
-        <v>0.009623210167673009</v>
+        <v>0.005524834709444712</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5076149174266213</v>
+        <v>0.5098384986238885</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>620</v>
+        <v>870</v>
       </c>
       <c r="B124" t="n">
-        <v>0.00955206776888589</v>
+        <v>0.005216513271029313</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5076860598254085</v>
+        <v>0.5101468200623039</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>625</v>
+        <v>880</v>
       </c>
       <c r="B125" t="n">
-        <v>0.009464780374719095</v>
+        <v>0.005144051103848093</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5077733472195752</v>
+        <v>0.5102192822294852</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>630</v>
+        <v>890</v>
       </c>
       <c r="B126" t="n">
-        <v>0.008700122150131455</v>
+        <v>0.005065294213794105</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5085380054441628</v>
+        <v>0.5102980391195392</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>635</v>
+        <v>900</v>
       </c>
       <c r="B127" t="n">
-        <v>0.008743556457270226</v>
+        <v>0.005068468901568707</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5084945711370241</v>
+        <v>0.5102948644317645</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>640</v>
+        <v>910</v>
       </c>
       <c r="B128" t="n">
-        <v>0.008147282705073285</v>
+        <v>0.00504516266806132</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5090908448892211</v>
+        <v>0.510318170665272</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>645</v>
+        <v>920</v>
       </c>
       <c r="B129" t="n">
-        <v>0.007338207131991321</v>
+        <v>0.004961699178740837</v>
       </c>
       <c r="C129" t="n">
-        <v>0.509899920462303</v>
+        <v>0.5104016341545925</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>650</v>
+        <v>930</v>
       </c>
       <c r="B130" t="n">
-        <v>0.007300720323570395</v>
+        <v>0.004865019894690023</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5099374072707239</v>
+        <v>0.5104983134386433</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>655</v>
+        <v>940</v>
       </c>
       <c r="B131" t="n">
-        <v>0.007188372851950601</v>
+        <v>0.00479242631457005</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5100497547423437</v>
+        <v>0.5105709070187633</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>660</v>
+        <v>950</v>
       </c>
       <c r="B132" t="n">
-        <v>0.007631126331609519</v>
+        <v>0.004836549838413595</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5096070012626848</v>
+        <v>0.5105267834949196</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>665</v>
+        <v>960</v>
       </c>
       <c r="B133" t="n">
-        <v>0.007312179673523681</v>
+        <v>0.004787076188163931</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5099259479207706</v>
+        <v>0.5105762571451693</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>670</v>
+        <v>970</v>
       </c>
       <c r="B134" t="n">
-        <v>0.007282100138850495</v>
+        <v>0.004622754424459912</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5099560274554439</v>
+        <v>0.5107405789088734</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>675</v>
+        <v>980</v>
       </c>
       <c r="B135" t="n">
-        <v>0.007018094767204106</v>
+        <v>0.004521973466032392</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5102200328270903</v>
+        <v>0.5108413598673009</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>680</v>
+        <v>990</v>
       </c>
       <c r="B136" t="n">
-        <v>0.006590302560932849</v>
+        <v>0.003594021867029846</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5106478250333615</v>
+        <v>0.5117693114663034</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>685</v>
+        <v>1000</v>
       </c>
       <c r="B137" t="n">
-        <v>0.006139029655061862</v>
+        <v>0.003561320777279945</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5110990979392325</v>
+        <v>0.5118020125560533</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>690</v>
+        <v>1010</v>
       </c>
       <c r="B138" t="n">
-        <v>0.005916214772968743</v>
+        <v>0.003505443849063767</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5113219128213256</v>
+        <v>0.5118578894842695</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>695</v>
+        <v>1020</v>
       </c>
       <c r="B139" t="n">
-        <v>0.005887279806937862</v>
+        <v>0.003483006156345393</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5113508477873565</v>
+        <v>0.5118803271769878</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>700</v>
+        <v>1030</v>
       </c>
       <c r="B140" t="n">
-        <v>0.005838572871939431</v>
+        <v>0.003441070218480384</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5113995547223549</v>
+        <v>0.5119222631148529</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>705</v>
+        <v>1040</v>
       </c>
       <c r="B141" t="n">
-        <v>0.005786766673158725</v>
+        <v>0.003434554113732159</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5114513609211356</v>
+        <v>0.5119287792196011</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>710</v>
+        <v>1050</v>
       </c>
       <c r="B142" t="n">
-        <v>0.005911301247227353</v>
+        <v>0.003466970520901108</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5113268263470669</v>
+        <v>0.5118963628124322</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>715</v>
+        <v>1060</v>
       </c>
       <c r="B143" t="n">
-        <v>0.005715742805102199</v>
+        <v>0.003456858029719652</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5115223847891921</v>
+        <v>0.5119064753036137</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>720</v>
+        <v>1070</v>
       </c>
       <c r="B144" t="n">
-        <v>0.005742042323143411</v>
+        <v>0.003494103330655531</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5114960852711509</v>
+        <v>0.5118692300026777</v>
       </c>
       <c r="D144" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>725</v>
+        <v>1080</v>
       </c>
       <c r="B145" t="n">
-        <v>0.005697559442480943</v>
+        <v>0.003402132696467901</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5115405681518134</v>
+        <v>0.5119612006368653</v>
       </c>
       <c r="D145" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>730</v>
+        <v>1090</v>
       </c>
       <c r="B146" t="n">
-        <v>0.005751153005207329</v>
+        <v>0.003454660089317478</v>
       </c>
       <c r="C146" t="n">
-        <v>0.511486974589087</v>
+        <v>0.5119086732440158</v>
       </c>
       <c r="D146" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>735</v>
+        <v>1100</v>
       </c>
       <c r="B147" t="n">
-        <v>0.005774813204237303</v>
+        <v>0.003483386162635454</v>
       </c>
       <c r="C147" t="n">
-        <v>0.511463314390057</v>
+        <v>0.5118799471706978</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>740</v>
+        <v>1110</v>
       </c>
       <c r="B148" t="n">
-        <v>0.005517665274856315</v>
+        <v>0.003463702010694323</v>
       </c>
       <c r="C148" t="n">
-        <v>0.511720462319438</v>
+        <v>0.5118996313226389</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>745</v>
+        <v>1120</v>
       </c>
       <c r="B149" t="n">
-        <v>0.005614721839993249</v>
+        <v>0.003460641912370724</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5116234057543011</v>
+        <v>0.5119026914209626</v>
       </c>
       <c r="D149" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>750</v>
+        <v>1130</v>
       </c>
       <c r="B150" t="n">
-        <v>0.005575591759900999</v>
+        <v>0.003448606280507309</v>
       </c>
       <c r="C150" t="n">
-        <v>0.5116625358343934</v>
+        <v>0.5119147270528259</v>
       </c>
       <c r="D150" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>755</v>
+        <v>1140</v>
       </c>
       <c r="B151" t="n">
-        <v>0.005558376271474962</v>
+        <v>0.003453417476857202</v>
       </c>
       <c r="C151" t="n">
-        <v>0.5116797513228194</v>
+        <v>0.511909915856476</v>
       </c>
       <c r="D151" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>760</v>
+        <v>1150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.00519751677066656</v>
+        <v>0.003395030270490346</v>
       </c>
       <c r="C152" t="n">
-        <v>0.5120406108236277</v>
+        <v>0.5119683030628429</v>
       </c>
       <c r="D152" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>765</v>
+        <v>1160</v>
       </c>
       <c r="B153" t="n">
-        <v>0.00462219533698845</v>
+        <v>0.003402474854664861</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5126159322573058</v>
+        <v>0.5119608584786685</v>
       </c>
       <c r="D153" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>770</v>
+        <v>1170</v>
       </c>
       <c r="B154" t="n">
-        <v>0.004657524445320953</v>
+        <v>0.003376746757174265</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5125806031489734</v>
+        <v>0.511986586576159</v>
       </c>
       <c r="D154" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>775</v>
+        <v>1180</v>
       </c>
       <c r="B155" t="n">
-        <v>0.00467277407137011</v>
+        <v>0.00337814466228215</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5125653535229242</v>
+        <v>0.5119851886710511</v>
       </c>
       <c r="D155" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>780</v>
+        <v>1190</v>
       </c>
       <c r="B156" t="n">
-        <v>0.004632046326501459</v>
+        <v>0.003333140106291911</v>
       </c>
       <c r="C156" t="n">
-        <v>0.5126060812677928</v>
+        <v>0.5120301932270414</v>
       </c>
       <c r="D156" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>785</v>
+        <v>1200</v>
       </c>
       <c r="B157" t="n">
-        <v>0.004697572250054295</v>
+        <v>0.003315766246307749</v>
       </c>
       <c r="C157" t="n">
-        <v>0.51254055534424</v>
+        <v>0.5120475670870256</v>
       </c>
       <c r="D157" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>790</v>
+        <v>1210</v>
       </c>
       <c r="B158" t="n">
-        <v>0.004650129620985145</v>
+        <v>0.003382892251263208</v>
       </c>
       <c r="C158" t="n">
-        <v>0.5125879979733092</v>
+        <v>0.5119804410820701</v>
       </c>
       <c r="D158" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>795</v>
+        <v>1220</v>
       </c>
       <c r="B159" t="n">
-        <v>0.004608228775517881</v>
+        <v>0.00334257210321652</v>
       </c>
       <c r="C159" t="n">
-        <v>0.5126298988187764</v>
+        <v>0.5120207612301167</v>
       </c>
       <c r="D159" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>800</v>
+        <v>1230</v>
       </c>
       <c r="B160" t="n">
-        <v>0.004538082358513397</v>
+        <v>0.003396381472262289</v>
       </c>
       <c r="C160" t="n">
-        <v>0.5127000452357809</v>
+        <v>0.511966951861071</v>
       </c>
       <c r="D160" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>805</v>
+        <v>1240</v>
       </c>
       <c r="B161" t="n">
-        <v>0.004576284608119172</v>
+        <v>0.003392562568641553</v>
       </c>
       <c r="C161" t="n">
-        <v>0.5126618429861751</v>
+        <v>0.5119707707646918</v>
       </c>
       <c r="D161" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>810</v>
+        <v>1250</v>
       </c>
       <c r="B162" t="n">
-        <v>0.004452241971795274</v>
+        <v>0.003344285348382005</v>
       </c>
       <c r="C162" t="n">
-        <v>0.512785885622499</v>
+        <v>0.5120190479849512</v>
       </c>
       <c r="D162" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>815</v>
+        <v>1260</v>
       </c>
       <c r="B163" t="n">
-        <v>0.004518121093787432</v>
+        <v>0.003318988206151249</v>
       </c>
       <c r="C163" t="n">
-        <v>0.5127200065005069</v>
+        <v>0.512044345127182</v>
       </c>
       <c r="D163" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>820</v>
+        <v>1270</v>
       </c>
       <c r="B164" t="n">
-        <v>0.004528447477405647</v>
+        <v>0.003313658798481018</v>
       </c>
       <c r="C164" t="n">
-        <v>0.5127096801168887</v>
+        <v>0.5120496745348523</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>825</v>
+        <v>1280</v>
       </c>
       <c r="B165" t="n">
-        <v>0.004470513352612809</v>
+        <v>0.003334691200021522</v>
       </c>
       <c r="C165" t="n">
-        <v>0.5127676142416815</v>
+        <v>0.5120286421333118</v>
       </c>
       <c r="D165" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>830</v>
+        <v>1290</v>
       </c>
       <c r="B166" t="n">
-        <v>0.004386101402332798</v>
+        <v>0.003250852089327467</v>
       </c>
       <c r="C166" t="n">
-        <v>0.5128520261919616</v>
+        <v>0.5121124812440058</v>
       </c>
       <c r="D166" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>835</v>
+        <v>1300</v>
       </c>
       <c r="B167" t="n">
-        <v>0.004407807871342977</v>
+        <v>0.003270045389561712</v>
       </c>
       <c r="C167" t="n">
-        <v>0.5128303197229513</v>
+        <v>0.5120932879437716</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>840</v>
+        <v>1310</v>
       </c>
       <c r="B168" t="n">
-        <v>0.004373163693624589</v>
+        <v>0.003277103728595357</v>
       </c>
       <c r="C168" t="n">
-        <v>0.5128649639006697</v>
+        <v>0.5120862296047379</v>
       </c>
       <c r="D168" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>845</v>
+        <v>1320</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0043890241222421</v>
+        <v>0.003277779043874184</v>
       </c>
       <c r="C169" t="n">
-        <v>0.5128491034720523</v>
+        <v>0.5120855542894591</v>
       </c>
       <c r="D169" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>850</v>
+        <v>1330</v>
       </c>
       <c r="B170" t="n">
-        <v>0.004358811400652083</v>
+        <v>0.00322939178609011</v>
       </c>
       <c r="C170" t="n">
-        <v>0.5128793161936422</v>
+        <v>0.5121339415472431</v>
       </c>
       <c r="D170" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>855</v>
+        <v>1340</v>
       </c>
       <c r="B171" t="n">
-        <v>0.004329098015471027</v>
+        <v>0.003214149684071028</v>
       </c>
       <c r="C171" t="n">
-        <v>0.5129090295788233</v>
+        <v>0.5121491836492622</v>
       </c>
       <c r="D171" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>860</v>
+        <v>1350</v>
       </c>
       <c r="B172" t="n">
-        <v>0.004229269612431551</v>
+        <v>0.003237676427849259</v>
       </c>
       <c r="C172" t="n">
-        <v>0.5130088579818628</v>
+        <v>0.5121256569054841</v>
       </c>
       <c r="D172" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>865</v>
+        <v>1360</v>
       </c>
       <c r="B173" t="n">
-        <v>0.00399567323097651</v>
+        <v>0.003210389879403698</v>
       </c>
       <c r="C173" t="n">
-        <v>0.5132424543633178</v>
+        <v>0.5121529434539296</v>
       </c>
       <c r="D173" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>870</v>
+        <v>1370</v>
       </c>
       <c r="B174" t="n">
-        <v>0.003993434504422927</v>
+        <v>0.003128740213050821</v>
       </c>
       <c r="C174" t="n">
-        <v>0.5132446930898714</v>
+        <v>0.5122345931202824</v>
       </c>
       <c r="D174" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>875</v>
+        <v>1380</v>
       </c>
       <c r="B175" t="n">
-        <v>0.003948260632528253</v>
+        <v>0.003191718643470875</v>
       </c>
       <c r="C175" t="n">
-        <v>0.513289866961766</v>
+        <v>0.5121716146898624</v>
       </c>
       <c r="D175" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>880</v>
+        <v>1390</v>
       </c>
       <c r="B176" t="n">
-        <v>0.003936237975023404</v>
+        <v>0.003176714086526122</v>
       </c>
       <c r="C176" t="n">
-        <v>0.5133018896192709</v>
+        <v>0.5121866192468072</v>
       </c>
       <c r="D176" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>885</v>
+        <v>1400</v>
       </c>
       <c r="B177" t="n">
-        <v>0.003917141848614693</v>
+        <v>0.003143977004063015</v>
       </c>
       <c r="C177" t="n">
-        <v>0.5133209857456796</v>
+        <v>0.5122193563292703</v>
       </c>
       <c r="D177" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>890</v>
+        <v>1410</v>
       </c>
       <c r="B178" t="n">
-        <v>0.003875459093616098</v>
+        <v>0.003097394200318837</v>
       </c>
       <c r="C178" t="n">
-        <v>0.5133626685006782</v>
+        <v>0.5122659391330144</v>
       </c>
       <c r="D178" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>895</v>
+        <v>1420</v>
       </c>
       <c r="B179" t="n">
-        <v>0.003922354583293437</v>
+        <v>0.003227501650662692</v>
       </c>
       <c r="C179" t="n">
-        <v>0.5133157730110008</v>
+        <v>0.5121358316826706</v>
       </c>
       <c r="D179" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>900</v>
+        <v>1430</v>
       </c>
       <c r="B180" t="n">
-        <v>0.003875536419922035</v>
+        <v>0.003190178697033827</v>
       </c>
       <c r="C180" t="n">
-        <v>0.5133625911743723</v>
+        <v>0.5121731546362994</v>
       </c>
       <c r="D180" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>905</v>
+        <v>1440</v>
       </c>
       <c r="B181" t="n">
-        <v>0.003884438231701669</v>
+        <v>0.003084301972560045</v>
       </c>
       <c r="C181" t="n">
-        <v>0.5133536893625926</v>
+        <v>0.5122790313607732</v>
       </c>
       <c r="D181" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>910</v>
+        <v>1500</v>
       </c>
       <c r="B182" t="n">
-        <v>0.003856125880634003</v>
+        <v>0.003080979538047961</v>
       </c>
       <c r="C182" t="n">
-        <v>0.5133820017136603</v>
+        <v>0.5122823537952853</v>
       </c>
       <c r="D182" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>915</v>
+        <v>1560</v>
       </c>
       <c r="B183" t="n">
-        <v>0.003851349015564148</v>
+        <v>0.002957563597826092</v>
       </c>
       <c r="C183" t="n">
-        <v>0.5133867785787302</v>
+        <v>0.5124057697355072</v>
       </c>
       <c r="D183" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>920</v>
+        <v>1620</v>
       </c>
       <c r="B184" t="n">
-        <v>0.003793581375346306</v>
+        <v>0.002947832800469132</v>
       </c>
       <c r="C184" t="n">
-        <v>0.513444546218948</v>
+        <v>0.5124155005328641</v>
       </c>
       <c r="D184" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>925</v>
+        <v>1680</v>
       </c>
       <c r="B185" t="n">
-        <v>0.003771500510076045</v>
+        <v>0.002943906676329082</v>
       </c>
       <c r="C185" t="n">
-        <v>0.5134666270842183</v>
+        <v>0.5124194266570042</v>
       </c>
       <c r="D185" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>930</v>
+        <v>1740</v>
       </c>
       <c r="B186" t="n">
-        <v>0.003710999232794239</v>
+        <v>0.002958009396387547</v>
       </c>
       <c r="C186" t="n">
-        <v>0.5135271283615001</v>
+        <v>0.5124053239369457</v>
       </c>
       <c r="D186" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>935</v>
+        <v>1800</v>
       </c>
       <c r="B187" t="n">
-        <v>0.003675894824955093</v>
+        <v>0.002979361644988189</v>
       </c>
       <c r="C187" t="n">
-        <v>0.5135622327693392</v>
+        <v>0.512383971688345</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>940</v>
+        <v>1860</v>
       </c>
       <c r="B188" t="n">
-        <v>0.003651484775000511</v>
+        <v>0.002976371893878988</v>
       </c>
       <c r="C188" t="n">
-        <v>0.5135866428192938</v>
+        <v>0.5123869614394543</v>
       </c>
       <c r="D188" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>945</v>
+        <v>1920</v>
       </c>
       <c r="B189" t="n">
-        <v>0.003589750484644088</v>
+        <v>0.003010923788128217</v>
       </c>
       <c r="C189" t="n">
-        <v>0.5136483771096503</v>
+        <v>0.5123524095452051</v>
       </c>
       <c r="D189" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>950</v>
+        <v>1980</v>
       </c>
       <c r="B190" t="n">
-        <v>0.00368765814786397</v>
+        <v>0.002996606012424988</v>
       </c>
       <c r="C190" t="n">
-        <v>0.5135504694464303</v>
+        <v>0.5123667273209083</v>
       </c>
       <c r="D190" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>955</v>
+        <v>2040</v>
       </c>
       <c r="B191" t="n">
-        <v>0.003655242357966468</v>
+        <v>0.002983159472746083</v>
       </c>
       <c r="C191" t="n">
-        <v>0.5135828852363279</v>
+        <v>0.5123801738605872</v>
       </c>
       <c r="D191" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>960</v>
+        <v>2100</v>
       </c>
       <c r="B192" t="n">
-        <v>0.003648896658577982</v>
+        <v>0.002984694084165188</v>
       </c>
       <c r="C192" t="n">
-        <v>0.5135892309357164</v>
+        <v>0.512378639249168</v>
       </c>
       <c r="D192" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>965</v>
+        <v>2160</v>
       </c>
       <c r="B193" t="n">
-        <v>0.003480707700044589</v>
+        <v>0.003033273332686616</v>
       </c>
       <c r="C193" t="n">
-        <v>0.5137574198942497</v>
+        <v>0.5123300600006466</v>
       </c>
       <c r="D193" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>970</v>
+        <v>2220</v>
       </c>
       <c r="B194" t="n">
-        <v>0.003525271834910721</v>
+        <v>0.002993928671907514</v>
       </c>
       <c r="C194" t="n">
-        <v>0.5137128557593836</v>
+        <v>0.5123694046614258</v>
       </c>
       <c r="D194" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>975</v>
+        <v>2280</v>
       </c>
       <c r="B195" t="n">
-        <v>0.003472163179147929</v>
+        <v>0.002973723340355583</v>
       </c>
       <c r="C195" t="n">
-        <v>0.5137659644151464</v>
+        <v>0.5123896099929777</v>
       </c>
       <c r="D195" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>980</v>
+        <v>2340</v>
       </c>
       <c r="B196" t="n">
-        <v>0.003445215741406825</v>
+        <v>0.002966988839987092</v>
       </c>
       <c r="C196" t="n">
-        <v>0.5137929118528876</v>
+        <v>0.5123963444933461</v>
       </c>
       <c r="D196" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>985</v>
+        <v>2400</v>
       </c>
       <c r="B197" t="n">
-        <v>0.003363917974092383</v>
+        <v>0.002960223743529851</v>
       </c>
       <c r="C197" t="n">
-        <v>0.5138742096202019</v>
+        <v>0.5124031095898034</v>
       </c>
       <c r="D197" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>990</v>
+        <v>2460</v>
       </c>
       <c r="B198" t="n">
-        <v>0.002677677347046161</v>
+        <v>0.002984963389701664</v>
       </c>
       <c r="C198" t="n">
-        <v>0.5145604502472482</v>
+        <v>0.5123783699436316</v>
       </c>
       <c r="D198" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>995</v>
+        <v>2520</v>
       </c>
       <c r="B199" t="n">
-        <v>0.002636314905067123</v>
+        <v>0.002990262101857114</v>
       </c>
       <c r="C199" t="n">
-        <v>0.5146018126892272</v>
+        <v>0.5123730712314761</v>
       </c>
       <c r="D199" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1000</v>
+        <v>2580</v>
       </c>
       <c r="B200" t="n">
-        <v>0.002652535725700658</v>
+        <v>0.003044726888327444</v>
       </c>
       <c r="C200" t="n">
-        <v>0.5145855918685937</v>
+        <v>0.5123186064450058</v>
       </c>
       <c r="D200" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B201" t="n">
-        <v>0.002619935667322819</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0.5146181919269716</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>1010</v>
-      </c>
-      <c r="B202" t="n">
-        <v>0.002609643038158807</v>
-      </c>
-      <c r="C202" t="n">
-        <v>0.5146284845561355</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>1015</v>
-      </c>
-      <c r="B203" t="n">
-        <v>0.002603455039409161</v>
-      </c>
-      <c r="C203" t="n">
-        <v>0.5146346725548852</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>1020</v>
-      </c>
-      <c r="B204" t="n">
-        <v>0.002593010904895228</v>
-      </c>
-      <c r="C204" t="n">
-        <v>0.5146451166893991</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>1025</v>
-      </c>
-      <c r="B205" t="n">
-        <v>0.002615164238983925</v>
-      </c>
-      <c r="C205" t="n">
-        <v>0.5146229633553104</v>
-      </c>
-      <c r="D205" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B206" t="n">
-        <v>0.002560846729294671</v>
-      </c>
-      <c r="C206" t="n">
-        <v>0.5146772808649996</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>1035</v>
-      </c>
-      <c r="B207" t="n">
-        <v>0.002547073034056446</v>
-      </c>
-      <c r="C207" t="n">
-        <v>0.5146910545602379</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>1040</v>
-      </c>
-      <c r="B208" t="n">
-        <v>0.002556302465121833</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0.5146818251291725</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>1045</v>
-      </c>
-      <c r="B209" t="n">
-        <v>0.002557596436616668</v>
-      </c>
-      <c r="C209" t="n">
-        <v>0.5146805311576776</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>1050</v>
-      </c>
-      <c r="B210" t="n">
-        <v>0.002580616392036455</v>
-      </c>
-      <c r="C210" t="n">
-        <v>0.5146575112022579</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>1055</v>
-      </c>
-      <c r="B211" t="n">
-        <v>0.002568942939379257</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0.5146691846549151</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>1060</v>
-      </c>
-      <c r="B212" t="n">
-        <v>0.002573480803635765</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0.5146646467906586</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>1065</v>
-      </c>
-      <c r="B213" t="n">
-        <v>0.002584794752484796</v>
-      </c>
-      <c r="C213" t="n">
-        <v>0.5146533328418096</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>1070</v>
-      </c>
-      <c r="B214" t="n">
-        <v>0.00260178148296759</v>
-      </c>
-      <c r="C214" t="n">
-        <v>0.5146363461113267</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>1075</v>
-      </c>
-      <c r="B215" t="n">
-        <v>0.002572305269083132</v>
-      </c>
-      <c r="C215" t="n">
-        <v>0.5146658223252112</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>1080</v>
-      </c>
-      <c r="B216" t="n">
-        <v>0.002532144476160552</v>
-      </c>
-      <c r="C216" t="n">
-        <v>0.5147059831181338</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>1085</v>
-      </c>
-      <c r="B217" t="n">
-        <v>0.002600265550018795</v>
-      </c>
-      <c r="C217" t="n">
-        <v>0.5146378620442755</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B218" t="n">
-        <v>0.002572079177122637</v>
-      </c>
-      <c r="C218" t="n">
-        <v>0.5146660484171717</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>1095</v>
-      </c>
-      <c r="B219" t="n">
-        <v>0.002570551481227717</v>
-      </c>
-      <c r="C219" t="n">
-        <v>0.5146675761130666</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>1100</v>
-      </c>
-      <c r="B220" t="n">
-        <v>0.002594347398802248</v>
-      </c>
-      <c r="C220" t="n">
-        <v>0.5146437801954921</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B221" t="n">
-        <v>0.002570437121225498</v>
-      </c>
-      <c r="C221" t="n">
-        <v>0.5146676904730688</v>
-      </c>
-      <c r="D221" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>1110</v>
-      </c>
-      <c r="B222" t="n">
-        <v>0.002579013720765461</v>
-      </c>
-      <c r="C222" t="n">
-        <v>0.5146591138735289</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>1115</v>
-      </c>
-      <c r="B223" t="n">
-        <v>0.002571445671346541</v>
-      </c>
-      <c r="C223" t="n">
-        <v>0.5146666819229477</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>1120</v>
-      </c>
-      <c r="B224" t="n">
-        <v>0.002576659652420609</v>
-      </c>
-      <c r="C224" t="n">
-        <v>0.5146614679418737</v>
-      </c>
-      <c r="D224" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B225" t="n">
-        <v>0.002573759523589227</v>
-      </c>
-      <c r="C225" t="n">
-        <v>0.5146643680707051</v>
-      </c>
-      <c r="D225" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>1130</v>
-      </c>
-      <c r="B226" t="n">
-        <v>0.002567861493175392</v>
-      </c>
-      <c r="C226" t="n">
-        <v>0.514670266101119</v>
-      </c>
-      <c r="D226" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>1135</v>
-      </c>
-      <c r="B227" t="n">
-        <v>0.002573377979901732</v>
-      </c>
-      <c r="C227" t="n">
-        <v>0.5146647496143926</v>
-      </c>
-      <c r="D227" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B228" t="n">
-        <v>0.002570579726771237</v>
-      </c>
-      <c r="C228" t="n">
-        <v>0.5146675478675231</v>
-      </c>
-      <c r="D228" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>1145</v>
-      </c>
-      <c r="B229" t="n">
-        <v>0.002511518293354752</v>
-      </c>
-      <c r="C229" t="n">
-        <v>0.5147266093009396</v>
-      </c>
-      <c r="D229" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>1150</v>
-      </c>
-      <c r="B230" t="n">
-        <v>0.002526496174796927</v>
-      </c>
-      <c r="C230" t="n">
-        <v>0.5147116314194974</v>
-      </c>
-      <c r="D230" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>1155</v>
-      </c>
-      <c r="B231" t="n">
-        <v>0.002509025625917471</v>
-      </c>
-      <c r="C231" t="n">
-        <v>0.5147291019683768</v>
-      </c>
-      <c r="D231" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>1160</v>
-      </c>
-      <c r="B232" t="n">
-        <v>0.002531522316807517</v>
-      </c>
-      <c r="C232" t="n">
-        <v>0.5147066052774868</v>
-      </c>
-      <c r="D232" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>1165</v>
-      </c>
-      <c r="B233" t="n">
-        <v>0.002531240604828278</v>
-      </c>
-      <c r="C233" t="n">
-        <v>0.5147068869894661</v>
-      </c>
-      <c r="D233" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>1170</v>
-      </c>
-      <c r="B234" t="n">
-        <v>0.002512968173067085</v>
-      </c>
-      <c r="C234" t="n">
-        <v>0.5147251594212272</v>
-      </c>
-      <c r="D234" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>1175</v>
-      </c>
-      <c r="B235" t="n">
-        <v>0.002524633033137357</v>
-      </c>
-      <c r="C235" t="n">
-        <v>0.514713494561157</v>
-      </c>
-      <c r="D235" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>1180</v>
-      </c>
-      <c r="B236" t="n">
-        <v>0.002512198531816425</v>
-      </c>
-      <c r="C236" t="n">
-        <v>0.5147259290624779</v>
-      </c>
-      <c r="D236" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>1185</v>
-      </c>
-      <c r="B237" t="n">
-        <v>0.002542551650103147</v>
-      </c>
-      <c r="C237" t="n">
-        <v>0.5146955759441911</v>
-      </c>
-      <c r="D237" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>1190</v>
-      </c>
-      <c r="B238" t="n">
-        <v>0.00247864037719548</v>
-      </c>
-      <c r="C238" t="n">
-        <v>0.5147594872170989</v>
-      </c>
-      <c r="D238" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>1195</v>
-      </c>
-      <c r="B239" t="n">
-        <v>0.00248416396316131</v>
-      </c>
-      <c r="C239" t="n">
-        <v>0.514753963631133</v>
-      </c>
-      <c r="D239" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>1200</v>
-      </c>
-      <c r="B240" t="n">
-        <v>0.002464894598033917</v>
-      </c>
-      <c r="C240" t="n">
-        <v>0.5147732329962604</v>
-      </c>
-      <c r="D240" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>1205</v>
-      </c>
-      <c r="B241" t="n">
-        <v>0.002497056573279083</v>
-      </c>
-      <c r="C241" t="n">
-        <v>0.5147410710210153</v>
-      </c>
-      <c r="D241" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>1210</v>
-      </c>
-      <c r="B242" t="n">
-        <v>0.002515776128745538</v>
-      </c>
-      <c r="C242" t="n">
-        <v>0.5147223514655488</v>
-      </c>
-      <c r="D242" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>1215</v>
-      </c>
-      <c r="B243" t="n">
-        <v>0.002508288614857799</v>
-      </c>
-      <c r="C243" t="n">
-        <v>0.5147298389794366</v>
-      </c>
-      <c r="D243" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>1220</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.002485695207668926</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.5147524323866254</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>1225</v>
-      </c>
-      <c r="B245" t="n">
-        <v>0.002465189127223618</v>
-      </c>
-      <c r="C245" t="n">
-        <v>0.5147729384670707</v>
-      </c>
-      <c r="D245" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>1230</v>
-      </c>
-      <c r="B246" t="n">
-        <v>0.002527871444452195</v>
-      </c>
-      <c r="C246" t="n">
-        <v>0.5147102561498421</v>
-      </c>
-      <c r="D246" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>1235</v>
-      </c>
-      <c r="B247" t="n">
-        <v>0.002510778066656442</v>
-      </c>
-      <c r="C247" t="n">
-        <v>0.5147273495276379</v>
-      </c>
-      <c r="D247" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>1240</v>
-      </c>
-      <c r="B248" t="n">
-        <v>0.002523658241299533</v>
-      </c>
-      <c r="C248" t="n">
-        <v>0.5147144693529948</v>
-      </c>
-      <c r="D248" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>1245</v>
-      </c>
-      <c r="B249" t="n">
-        <v>0.002497224057016385</v>
-      </c>
-      <c r="C249" t="n">
-        <v>0.514740903537278</v>
-      </c>
-      <c r="D249" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>1250</v>
-      </c>
-      <c r="B250" t="n">
-        <v>0.002486661147388049</v>
-      </c>
-      <c r="C250" t="n">
-        <v>0.5147514664469063</v>
-      </c>
-      <c r="D250" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>1255</v>
-      </c>
-      <c r="B251" t="n">
-        <v>0.002451415423343809</v>
-      </c>
-      <c r="C251" t="n">
-        <v>0.5147867121709505</v>
-      </c>
-      <c r="D251" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>1260</v>
-      </c>
-      <c r="B252" t="n">
-        <v>0.00246722441661473</v>
-      </c>
-      <c r="C252" t="n">
-        <v>0.5147709031776796</v>
-      </c>
-      <c r="D252" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>1265</v>
-      </c>
-      <c r="B253" t="n">
-        <v>0.002434062567967079</v>
-      </c>
-      <c r="C253" t="n">
-        <v>0.5148040650263273</v>
-      </c>
-      <c r="D253" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>1270</v>
-      </c>
-      <c r="B254" t="n">
-        <v>0.002462397260980622</v>
-      </c>
-      <c r="C254" t="n">
-        <v>0.5147757303333137</v>
-      </c>
-      <c r="D254" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>1275</v>
-      </c>
-      <c r="B255" t="n">
-        <v>0.002465822782894421</v>
-      </c>
-      <c r="C255" t="n">
-        <v>0.5147723048113999</v>
-      </c>
-      <c r="D255" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>1280</v>
-      </c>
-      <c r="B256" t="n">
-        <v>0.002478887245612183</v>
-      </c>
-      <c r="C256" t="n">
-        <v>0.5147592403486821</v>
-      </c>
-      <c r="D256" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>1285</v>
-      </c>
-      <c r="B257" t="n">
-        <v>0.002483364533788684</v>
-      </c>
-      <c r="C257" t="n">
-        <v>0.5147547630605056</v>
-      </c>
-      <c r="D257" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>1290</v>
-      </c>
-      <c r="B258" t="n">
-        <v>0.00241428765448286</v>
-      </c>
-      <c r="C258" t="n">
-        <v>0.5148238399398115</v>
-      </c>
-      <c r="D258" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>1295</v>
-      </c>
-      <c r="B259" t="n">
-        <v>0.002421040724515284</v>
-      </c>
-      <c r="C259" t="n">
-        <v>0.514817086869779</v>
-      </c>
-      <c r="D259" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>1300</v>
-      </c>
-      <c r="B260" t="n">
-        <v>0.002429959328470914</v>
-      </c>
-      <c r="C260" t="n">
-        <v>0.5148081682658234</v>
-      </c>
-      <c r="D260" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>1305</v>
-      </c>
-      <c r="B261" t="n">
-        <v>0.002447804546681735</v>
-      </c>
-      <c r="C261" t="n">
-        <v>0.5147903230476126</v>
-      </c>
-      <c r="D261" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>1310</v>
-      </c>
-      <c r="B262" t="n">
-        <v>0.00243514180178481</v>
-      </c>
-      <c r="C262" t="n">
-        <v>0.5148029857925095</v>
-      </c>
-      <c r="D262" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>1315</v>
-      </c>
-      <c r="B263" t="n">
-        <v>0.002428097018994085</v>
-      </c>
-      <c r="C263" t="n">
-        <v>0.5148100305753003</v>
-      </c>
-      <c r="D263" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>1320</v>
-      </c>
-      <c r="B264" t="n">
-        <v>0.002435485578334573</v>
-      </c>
-      <c r="C264" t="n">
-        <v>0.5148026420159597</v>
-      </c>
-      <c r="D264" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>1325</v>
-      </c>
-      <c r="B265" t="n">
-        <v>0.002391368693089257</v>
-      </c>
-      <c r="C265" t="n">
-        <v>0.5148467589012051</v>
-      </c>
-      <c r="D265" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>1330</v>
-      </c>
-      <c r="B266" t="n">
-        <v>0.002397512924347341</v>
-      </c>
-      <c r="C266" t="n">
-        <v>0.514840614669947</v>
-      </c>
-      <c r="D266" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>1335</v>
-      </c>
-      <c r="B267" t="n">
-        <v>0.002382944922509792</v>
-      </c>
-      <c r="C267" t="n">
-        <v>0.5148551826717845</v>
-      </c>
-      <c r="D267" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>1340</v>
-      </c>
-      <c r="B268" t="n">
-        <v>0.002385619028780884</v>
-      </c>
-      <c r="C268" t="n">
-        <v>0.5148525085655135</v>
-      </c>
-      <c r="D268" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>1345</v>
-      </c>
-      <c r="B269" t="n">
-        <v>0.002383616891485803</v>
-      </c>
-      <c r="C269" t="n">
-        <v>0.5148545107028085</v>
-      </c>
-      <c r="D269" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>1350</v>
-      </c>
-      <c r="B270" t="n">
-        <v>0.002404733060040841</v>
-      </c>
-      <c r="C270" t="n">
-        <v>0.5148333945342535</v>
-      </c>
-      <c r="D270" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>1355</v>
-      </c>
-      <c r="B271" t="n">
-        <v>0.002393241195087378</v>
-      </c>
-      <c r="C271" t="n">
-        <v>0.514844886399207</v>
-      </c>
-      <c r="D271" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>1360</v>
-      </c>
-      <c r="B272" t="n">
-        <v>0.002383484341506428</v>
-      </c>
-      <c r="C272" t="n">
-        <v>0.5148546432527878</v>
-      </c>
-      <c r="D272" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>1365</v>
-      </c>
-      <c r="B273" t="n">
-        <v>0.002387452314337698</v>
-      </c>
-      <c r="C273" t="n">
-        <v>0.5148506752799566</v>
-      </c>
-      <c r="D273" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>1370</v>
-      </c>
-      <c r="B274" t="n">
-        <v>0.002319986124502479</v>
-      </c>
-      <c r="C274" t="n">
-        <v>0.5149181414697919</v>
-      </c>
-      <c r="D274" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>1375</v>
-      </c>
-      <c r="B275" t="n">
-        <v>0.002398891190825348</v>
-      </c>
-      <c r="C275" t="n">
-        <v>0.514839236403469</v>
-      </c>
-      <c r="D275" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>1380</v>
-      </c>
-      <c r="B276" t="n">
-        <v>0.002369359470428888</v>
-      </c>
-      <c r="C276" t="n">
-        <v>0.5148687681238654</v>
-      </c>
-      <c r="D276" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>1385</v>
-      </c>
-      <c r="B277" t="n">
-        <v>0.00238285479977546</v>
-      </c>
-      <c r="C277" t="n">
-        <v>0.5148552727945188</v>
-      </c>
-      <c r="D277" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>1390</v>
-      </c>
-      <c r="B278" t="n">
-        <v>0.002356795688700168</v>
-      </c>
-      <c r="C278" t="n">
-        <v>0.5148813319055942</v>
-      </c>
-      <c r="D278" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>1395</v>
-      </c>
-      <c r="B279" t="n">
-        <v>0.002363079211503548</v>
-      </c>
-      <c r="C279" t="n">
-        <v>0.5148750483827907</v>
-      </c>
-      <c r="D279" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>1400</v>
-      </c>
-      <c r="B280" t="n">
-        <v>0.00233220819372568</v>
-      </c>
-      <c r="C280" t="n">
-        <v>0.5149059194005686</v>
-      </c>
-      <c r="D280" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>1405</v>
-      </c>
-      <c r="B281" t="n">
-        <v>0.002352254038025481</v>
-      </c>
-      <c r="C281" t="n">
-        <v>0.5148858735562688</v>
-      </c>
-      <c r="D281" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>1410</v>
-      </c>
-      <c r="B282" t="n">
-        <v>0.002294390927021082</v>
-      </c>
-      <c r="C282" t="n">
-        <v>0.5149437366672732</v>
-      </c>
-      <c r="D282" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>1415</v>
-      </c>
-      <c r="B283" t="n">
-        <v>0.002345570306196536</v>
-      </c>
-      <c r="C283" t="n">
-        <v>0.5148925572880978</v>
-      </c>
-      <c r="D283" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>1420</v>
-      </c>
-      <c r="B284" t="n">
-        <v>0.002396216673157418</v>
-      </c>
-      <c r="C284" t="n">
-        <v>0.514841910921137</v>
-      </c>
-      <c r="D284" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>1425</v>
-      </c>
-      <c r="B285" t="n">
-        <v>0.002376625177052665</v>
-      </c>
-      <c r="C285" t="n">
-        <v>0.5148615024172417</v>
-      </c>
-      <c r="D285" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>1430</v>
-      </c>
-      <c r="B286" t="n">
-        <v>0.002367047666492503</v>
-      </c>
-      <c r="C286" t="n">
-        <v>0.5148710799278018</v>
-      </c>
-      <c r="D286" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>1435</v>
-      </c>
-      <c r="B287" t="n">
-        <v>0.002340794236319628</v>
-      </c>
-      <c r="C287" t="n">
-        <v>0.5148973333579747</v>
-      </c>
-      <c r="D287" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>1440</v>
-      </c>
-      <c r="B288" t="n">
-        <v>0.002283691504092377</v>
-      </c>
-      <c r="C288" t="n">
-        <v>0.514954436090202</v>
-      </c>
-      <c r="D288" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
   </sheetData>
